--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3915.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3915.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.454631866033136</v>
+        <v>2.168195009231567</v>
       </c>
       <c r="B1">
-        <v>1.864575657181198</v>
+        <v>2.278706550598145</v>
       </c>
       <c r="C1">
-        <v>2.798358681747781</v>
+        <v>2.889773607254028</v>
       </c>
       <c r="D1">
-        <v>7.979092016561604</v>
+        <v>2.134241104125977</v>
       </c>
       <c r="E1">
-        <v>1.995521882974444</v>
+        <v>2.067207336425781</v>
       </c>
     </row>
   </sheetData>
